--- a/downloaded_files/GENS120_Lecture-35038.xlsx
+++ b/downloaded_files/GENS120_Lecture-35038.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="139">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="142">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -433,6 +433,15 @@
   </x:si>
   <x:si>
     <x:t>Youssef ahmed elsayed ahmed metwaley</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4250200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>يوسف احمد محمد محمد عيسى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Yuossef Ahmed</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -548,7 +557,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E46" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E47" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -848,7 +857,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T46"/>
+  <x:dimension ref="A1:T47"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -2362,6 +2371,38 @@
       <x:c r="R46" s="2" t="s"/>
       <x:c r="S46" s="2" t="s"/>
       <x:c r="T46" s="2" t="s"/>
+    </x:row>
+    <x:row r="47" spans="1:20">
+      <x:c r="A47" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B47" s="2" t="s">
+        <x:v>139</x:v>
+      </x:c>
+      <x:c r="C47" s="2" t="s">
+        <x:v>140</x:v>
+      </x:c>
+      <x:c r="D47" s="2" t="s">
+        <x:v>141</x:v>
+      </x:c>
+      <x:c r="E47" s="3">
+        <x:v>45921.9304752315</x:v>
+      </x:c>
+      <x:c r="F47" s="2" t="s"/>
+      <x:c r="G47" s="2" t="s"/>
+      <x:c r="H47" s="2" t="s"/>
+      <x:c r="I47" s="2" t="s"/>
+      <x:c r="J47" s="2" t="s"/>
+      <x:c r="K47" s="2" t="s"/>
+      <x:c r="L47" s="2" t="s"/>
+      <x:c r="M47" s="2" t="s"/>
+      <x:c r="N47" s="2" t="s"/>
+      <x:c r="O47" s="2" t="s"/>
+      <x:c r="P47" s="2" t="s"/>
+      <x:c r="Q47" s="2" t="s"/>
+      <x:c r="R47" s="2" t="s"/>
+      <x:c r="S47" s="2" t="s"/>
+      <x:c r="T47" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/GENS120_Lecture-35038.xlsx
+++ b/downloaded_files/GENS120_Lecture-35038.xlsx
@@ -180,7 +180,7 @@
     <x:t>1240194</x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve">زياد عمر احمد عمر </x:t>
+    <x:t>زياد عمر احمد عمر محمود السيد</x:t>
   </x:si>
   <x:si>
     <x:t>ZEYAD OMAR AHMED OMAR</x:t>
